--- a/codigo_final_organizado/analisis/resultados_diff_d/P3_Variabilidad_por_d.xlsx
+++ b/codigo_final_organizado/analisis/resultados_diff_d/P3_Variabilidad_por_d.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7225049681396816</v>
+        <v>7.617705108046985</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5995172014420755</v>
+        <v>0.6708394587001284</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6068496041894325</v>
+        <v>2.619324538528037</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5402339160008827</v>
+        <v>0.7000267553048765</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5634570626651402</v>
+        <v>8.386183010212303</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5085511047640997</v>
+        <v>0.6369023525766802</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4258581384669783</v>
+        <v>2.551809195885169</v>
       </c>
       <c r="E5" t="n">
-        <v>0.476571601633628</v>
+        <v>0.7281332648281784</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7175873593710176</v>
+        <v>4.181518565753688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4351089192751124</v>
+        <v>0.5039738267966732</v>
       </c>
     </row>
     <row r="7">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5798174090177521</v>
+        <v>1.001008412321248</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5390234718539284</v>
+        <v>0.5918993692127261</v>
       </c>
     </row>
     <row r="8">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5996788660953214</v>
+        <v>3.455647217494436</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5395361495580179</v>
+        <v>0.7033765927368347</v>
       </c>
     </row>
     <row r="9">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5906070816111063</v>
+        <v>2.396511362265628</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5312669980241919</v>
+        <v>0.6793751795374597</v>
       </c>
     </row>
     <row r="10">
@@ -640,13 +640,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4610552598658982</v>
+        <v>0.4663050826863676</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5066383456499254</v>
+        <v>0.514668073913838</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>8.739058040213424</v>
+        <v>1219.115254583275</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7011220528640832</v>
+        <v>0.6791862874985495</v>
       </c>
     </row>
     <row r="12">
@@ -682,13 +682,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2.269595204518906</v>
+        <v>403.1195563316954</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6970476088046237</v>
+        <v>0.7808884255768332</v>
       </c>
     </row>
     <row r="13">
@@ -703,13 +703,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>9.558862426327222</v>
+        <v>1299.024188898332</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6681673302876673</v>
+        <v>0.6585422632386393</v>
       </c>
     </row>
     <row r="14">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1.696662381677163</v>
+        <v>998.0363788783188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7148542050890352</v>
+        <v>0.7862281344708725</v>
       </c>
     </row>
     <row r="15">
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>4.016516354909048</v>
+        <v>299.8797914959927</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5267289491387095</v>
+        <v>0.6031449169708393</v>
       </c>
     </row>
     <row r="16">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>1.015214635264516</v>
+        <v>24.21154742323125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6032505721393813</v>
+        <v>0.7142973749692764</v>
       </c>
     </row>
     <row r="17">
@@ -787,13 +787,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.029064809478162</v>
+        <v>157.4454497254588</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6061743086871565</v>
+        <v>0.7670696051961209</v>
       </c>
     </row>
     <row r="18">
@@ -808,13 +808,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>2.123557257337344</v>
+        <v>504.3703510049842</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6704934582941798</v>
+        <v>0.7723696554982961</v>
       </c>
     </row>
     <row r="19">
@@ -829,13 +829,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4807855507216764</v>
+        <v>0.4605430870148703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5291848945121314</v>
+        <v>0.5044038113448769</v>
       </c>
     </row>
     <row r="20">
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>1869.352133493062</v>
+        <v>134663.4017187055</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7748659628180984</v>
+        <v>0.6399854164965759</v>
       </c>
     </row>
     <row r="21">
@@ -871,13 +871,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>480.614508639977</v>
+        <v>34359.77082938555</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8340295516582923</v>
+        <v>0.6636503732627653</v>
       </c>
     </row>
     <row r="22">
@@ -892,13 +892,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>1983.745072007185</v>
+        <v>141094.0369036324</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7379731275905632</v>
+        <v>0.6311934058302857</v>
       </c>
     </row>
     <row r="23">
@@ -913,13 +913,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>1338.400296764703</v>
+        <v>123182.1672995682</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8971392926985439</v>
+        <v>0.6767936577311277</v>
       </c>
     </row>
     <row r="24">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>435.1500051791184</v>
+        <v>29647.23740019329</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6987240757907761</v>
+        <v>0.6156309121874161</v>
       </c>
     </row>
     <row r="25">
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>26.48255717435194</v>
+        <v>3165.367789584064</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7214047120989232</v>
+        <v>0.6701027761602077</v>
       </c>
     </row>
     <row r="26">
@@ -976,13 +976,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>26.45360808694449</v>
+        <v>20137.49917918081</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7233611695160062</v>
+        <v>0.7424704949415866</v>
       </c>
     </row>
     <row r="27">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>721.3770938451412</v>
+        <v>62623.2669509304</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8430535523341842</v>
+        <v>0.6670156427097115</v>
       </c>
     </row>
     <row r="28">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4591325602769649</v>
+        <v>0.4852085588826229</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5180474095522825</v>
+        <v>0.5062499357490953</v>
       </c>
     </row>
     <row r="29">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>224501.0885504792</v>
+        <v>8712544.460725302</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6278628039196934</v>
+        <v>0.6237526402493613</v>
       </c>
     </row>
     <row r="30">
@@ -1060,13 +1060,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>55446.71995290065</v>
+        <v>2248578.410922478</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7148502463482396</v>
+        <v>0.6361372691417171</v>
       </c>
     </row>
     <row r="31">
@@ -1081,13 +1081,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>236083.5806740694</v>
+        <v>9048673.885984017</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6187747974613182</v>
+        <v>0.6248900715448618</v>
       </c>
     </row>
     <row r="32">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>210311.2713268166</v>
+        <v>7642861.508113759</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7235138730078743</v>
+        <v>0.6137119468526465</v>
       </c>
     </row>
     <row r="33">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>47998.76447158413</v>
+        <v>2099994.773105356</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6262274226427544</v>
+        <v>0.6073753878414202</v>
       </c>
     </row>
     <row r="34">
@@ -1144,13 +1144,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>4759.69041734273</v>
+        <v>241224.9823135139</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6961385636028938</v>
+        <v>0.6230913208832398</v>
       </c>
     </row>
     <row r="35">
@@ -1165,13 +1165,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>4843.11667874277</v>
+        <v>1587056.418783467</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6988137626555472</v>
+        <v>0.7140255360107894</v>
       </c>
     </row>
     <row r="36">
@@ -1186,13 +1186,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>101790.88359411</v>
+        <v>4414573.276506389</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6830891646169636</v>
+        <v>0.6340458151993281</v>
       </c>
     </row>
     <row r="37">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4820065085204832</v>
+        <v>0.5921622845862995</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5070679011338376</v>
+        <v>0.5667520493661599</v>
       </c>
     </row>
     <row r="38">
@@ -1228,13 +1228,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>27829893.22417803</v>
+        <v>17861878510.63459</v>
       </c>
       <c r="E38" t="n">
-        <v>0.668000344986415</v>
+        <v>0.7063586226801352</v>
       </c>
     </row>
     <row r="39">
@@ -1249,13 +1249,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>5786339.359002847</v>
+        <v>5937879954.291222</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6540085647223813</v>
+        <v>0.7279187126158549</v>
       </c>
     </row>
     <row r="40">
@@ -1270,13 +1270,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>29313669.49661225</v>
+        <v>18166265593.1338</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6674385055584144</v>
+        <v>0.7044202708982689</v>
       </c>
     </row>
     <row r="41">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>22779477.06473432</v>
+        <v>16383806773.15225</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6503566479896438</v>
+        <v>0.7015320559575829</v>
       </c>
     </row>
     <row r="42">
@@ -1312,13 +1312,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D42" t="n">
-        <v>5146700.214590626</v>
+        <v>4914964323.929969</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6394985954870266</v>
+        <v>0.7075714165171341</v>
       </c>
     </row>
     <row r="43">
@@ -1333,13 +1333,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D43" t="n">
-        <v>573167.5448033279</v>
+        <v>621819837.7928548</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6603787180578359</v>
+        <v>0.6868604045273655</v>
       </c>
     </row>
     <row r="44">
@@ -1354,13 +1354,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D44" t="n">
-        <v>560732.592332989</v>
+        <v>4135677557.807921</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6587534164559117</v>
+        <v>0.7700151317451726</v>
       </c>
     </row>
     <row r="45">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D45" t="n">
-        <v>12490111.78471185</v>
+        <v>10665060090.14702</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6632585177485403</v>
+        <v>0.7095365218213566</v>
       </c>
     </row>
     <row r="46">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6530978440261483</v>
+        <v>229.2982542534981</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5707481435245871</v>
+        <v>0.9256383767773235</v>
       </c>
     </row>
     <row r="47">
@@ -1417,13 +1417,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D47" t="n">
-        <v>1573100535.071787</v>
+        <v>485393660441342.6</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6304058710066641</v>
+        <v>0.6691222615814376</v>
       </c>
     </row>
     <row r="48">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>377054464.6778004</v>
+        <v>200670422389949.6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.6537203180196257</v>
+        <v>0.6955796058963182</v>
       </c>
     </row>
     <row r="49">
@@ -1459,13 +1459,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49" t="n">
-        <v>1652394586.024285</v>
+        <v>492852669725487.1</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6307949539292006</v>
+        <v>0.6687715714877019</v>
       </c>
     </row>
     <row r="50">
@@ -1480,13 +1480,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D50" t="n">
-        <v>1443112937.937033</v>
+        <v>475852057883905</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6445601975679078</v>
+        <v>0.665201624121383</v>
       </c>
     </row>
     <row r="51">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>352091702.7247271</v>
+        <v>179457828993899.8</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6548233443958629</v>
+        <v>0.6929642789084983</v>
       </c>
     </row>
     <row r="52">
@@ -1522,13 +1522,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>37531364.52339491</v>
+        <v>24289365962400.82</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6507779151401295</v>
+        <v>0.6855351442921431</v>
       </c>
     </row>
     <row r="53">
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D53" t="n">
-        <v>36261924.5869292</v>
+        <v>145129872058475</v>
       </c>
       <c r="E53" t="n">
-        <v>0.6409928045666132</v>
+        <v>0.746430662891524</v>
       </c>
     </row>
     <row r="54">
@@ -1564,13 +1564,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>793136718.549634</v>
+        <v>335789941588505</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6688393982785755</v>
+        <v>0.6770203699553065</v>
       </c>
     </row>
     <row r="55">
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D55" t="n">
-        <v>174.1621291966629</v>
+        <v>22607068.84991225</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8200582270303622</v>
+        <v>0.8772438357438843</v>
       </c>
     </row>
     <row r="56">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>114666864045.4465</v>
+        <v>1255.575993936193</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6961404449113866</v>
+        <v>0.6841633204409515</v>
       </c>
     </row>
     <row r="57">
@@ -1623,17 +1623,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>30469774472.14298</v>
+        <v>409.2340449878045</v>
       </c>
       <c r="E57" t="n">
-        <v>0.7023190121297692</v>
+        <v>0.7601474048826091</v>
       </c>
     </row>
     <row r="58">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>119906171909.6851</v>
+        <v>1329.430627040836</v>
       </c>
       <c r="E58" t="n">
-        <v>0.695458354393329</v>
+        <v>0.6756036211086911</v>
       </c>
     </row>
     <row r="59">
@@ -1665,17 +1665,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>111416552539.1287</v>
+        <v>983.7255736979555</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7098035699546533</v>
+        <v>0.7505871135692659</v>
       </c>
     </row>
     <row r="60">
@@ -1686,17 +1686,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>27701763788.95955</v>
+        <v>300.2131429505162</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6764774139826089</v>
+        <v>0.6316019504022784</v>
       </c>
     </row>
     <row r="61">
@@ -1707,17 +1707,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>3015955162.71767</v>
+        <v>24.56103711825918</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6735890363557153</v>
+        <v>0.68936569098456</v>
       </c>
     </row>
     <row r="62">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2911333392.538571</v>
+        <v>144.1407363887596</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6661112127610572</v>
+        <v>0.7261016226801384</v>
       </c>
     </row>
     <row r="63">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>62663578670.74947</v>
+        <v>522.4628058788371</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7145968233589635</v>
+        <v>0.7531558864034541</v>
       </c>
     </row>
     <row r="64">
@@ -1770,17 +1770,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>11148.76482807968</v>
+        <v>0.4945827606119369</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6651870597034567</v>
+        <v>0.519206257611769</v>
       </c>
     </row>
     <row r="65">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>4808807955924.68</v>
+        <v>126030.9655902625</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5942482516205426</v>
+        <v>0.5939351680236825</v>
       </c>
     </row>
     <row r="66">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>1462766616005.107</v>
+        <v>28793.8877663504</v>
       </c>
       <c r="E66" t="n">
-        <v>0.631931094952303</v>
+        <v>0.6164753139534278</v>
       </c>
     </row>
     <row r="67">
@@ -1833,17 +1833,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4990199132167.13</v>
+        <v>131893.7899855723</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5913425228693439</v>
+        <v>0.5959113629937517</v>
       </c>
     </row>
     <row r="68">
@@ -1854,17 +1854,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>4907546144258.686</v>
+        <v>112033.3006821267</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6152921976223535</v>
+        <v>0.633736557043361</v>
       </c>
     </row>
     <row r="69">
@@ -1875,17 +1875,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>1263286129804.723</v>
+        <v>28915.64369271722</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6136046090424412</v>
+        <v>0.6140085688582432</v>
       </c>
     </row>
     <row r="70">
@@ -1896,17 +1896,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>147994059725.1522</v>
+        <v>2913.055927143849</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6074562786751293</v>
+        <v>0.6114035512067242</v>
       </c>
     </row>
     <row r="71">
@@ -1917,17 +1917,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>146019199608.5836</v>
+        <v>18990.28879391397</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6042786723024594</v>
+        <v>0.6932977360412484</v>
       </c>
     </row>
     <row r="72">
@@ -1938,17 +1938,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>2880291184924.535</v>
+        <v>55144.41087796779</v>
       </c>
       <c r="E72" t="n">
-        <v>0.607018951733723</v>
+        <v>0.6198658415143865</v>
       </c>
     </row>
     <row r="73">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>459841.1672988516</v>
+        <v>0.485724389602479</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6341369405673688</v>
+        <v>0.5137448711930873</v>
       </c>
     </row>
     <row r="74">
@@ -1980,17 +1980,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>217546734260948.5</v>
+        <v>7617770.826700073</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6461310030220002</v>
+        <v>0.59857219458369</v>
       </c>
     </row>
     <row r="75">
@@ -2001,17 +2001,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>74144582517080.72</v>
+        <v>2318449.140805962</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6656127676082152</v>
+        <v>0.6532308670312869</v>
       </c>
     </row>
     <row r="76">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>225189195806064.9</v>
+        <v>7930776.917065494</v>
       </c>
       <c r="E76" t="n">
-        <v>0.645293391627995</v>
+        <v>0.6024810543376481</v>
       </c>
     </row>
     <row r="77">
@@ -2043,17 +2043,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>215507506168218.3</v>
+        <v>7476934.946347709</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6449244748856895</v>
+        <v>0.6274043775236401</v>
       </c>
     </row>
     <row r="78">
@@ -2064,17 +2064,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>61089509969446</v>
+        <v>2031624.559167078</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6338226387776907</v>
+        <v>0.6412325563948764</v>
       </c>
     </row>
     <row r="79">
@@ -2085,17 +2085,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>7453362601626.691</v>
+        <v>229900.8373591507</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6306265692495464</v>
+        <v>0.6233500132319918</v>
       </c>
     </row>
     <row r="80">
@@ -2106,17 +2106,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>7221555493577.308</v>
+        <v>1592986.262699953</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6219578931416599</v>
+        <v>0.7189078496490732</v>
       </c>
     </row>
     <row r="81">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>139126692912934.7</v>
+        <v>4299066.989946489</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6558248147932666</v>
+        <v>0.6355599890028154</v>
       </c>
     </row>
     <row r="82">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>24352574.49643551</v>
+        <v>0.5748353327979048</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6332383723149936</v>
+        <v>0.5308043859019536</v>
       </c>
     </row>
     <row r="83">
@@ -2169,17 +2169,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>7857488022469880</v>
+        <v>408188272.0988017</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6526004248857974</v>
+        <v>0.5787396669969858</v>
       </c>
     </row>
     <row r="84">
@@ -2190,17 +2190,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>3112066268864265</v>
+        <v>128520338.0875241</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6965344037885797</v>
+        <v>0.6353047387552766</v>
       </c>
     </row>
     <row r="85">
@@ -2211,17 +2211,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>8050230634657616</v>
+        <v>419459866.4357847</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6508993023344208</v>
+        <v>0.5786383502451662</v>
       </c>
     </row>
     <row r="86">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>7999395326480670</v>
+        <v>390607471.9900473</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6573244597904156</v>
+        <v>0.5925211294381707</v>
       </c>
     </row>
     <row r="87">
@@ -2253,17 +2253,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>2580200632656506</v>
+        <v>109425253.7408304</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6790030985199934</v>
+        <v>0.5991075617511207</v>
       </c>
     </row>
     <row r="88">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>306830106679284.5</v>
+        <v>13296082.90701262</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6701919819094541</v>
+        <v>0.6074594476140225</v>
       </c>
     </row>
     <row r="89">
@@ -2295,17 +2295,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>296406742070913.6</v>
+        <v>93183312.35903703</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6657532965896902</v>
+        <v>0.7233768836658802</v>
       </c>
     </row>
     <row r="90">
@@ -2316,17 +2316,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>5317664703441295</v>
+        <v>236105721.9500777</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6654321203500511</v>
+        <v>0.60275347044058</v>
       </c>
     </row>
     <row r="91">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>CON_DIFF</t>
+          <t>SIN_DIFF</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>1134749906.63864</v>
+        <v>2.47788572456789</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6455400757165592</v>
+        <v>0.7475493020130209</v>
       </c>
     </row>
     <row r="92">
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>8.078913262218521</v>
+        <v>604740476273.9697</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6540595970832597</v>
+        <v>0.7136595086990457</v>
       </c>
     </row>
     <row r="93">
@@ -2383,13 +2383,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>2.61658754091936</v>
+        <v>226088845923.4484</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7013940836921685</v>
+        <v>0.741614091339696</v>
       </c>
     </row>
     <row r="94">
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>8.561609538380567</v>
+        <v>623110447542.0054</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5999705981078347</v>
+        <v>0.7160020558761324</v>
       </c>
     </row>
     <row r="95">
@@ -2425,13 +2425,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>1.840703386349615</v>
+        <v>586299338994.0747</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6911927765851316</v>
+        <v>0.7141058196776995</v>
       </c>
     </row>
     <row r="96">
@@ -2446,13 +2446,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>4.230740382648555</v>
+        <v>191673058370.2348</v>
       </c>
       <c r="E96" t="n">
-        <v>0.5426378736134159</v>
+        <v>0.7338706786916451</v>
       </c>
     </row>
     <row r="97">
@@ -2467,13 +2467,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>1.060133103332742</v>
+        <v>24352313987.84896</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6119192688327092</v>
+        <v>0.7097826917838036</v>
       </c>
     </row>
     <row r="98">
@@ -2488,13 +2488,13 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>1.061414252782264</v>
+        <v>159864340919.3371</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6146383882336265</v>
+        <v>0.7848019398365943</v>
       </c>
     </row>
     <row r="99">
@@ -2509,13 +2509,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>2.275177443599984</v>
+        <v>391714621918.4237</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6680305607312648</v>
+        <v>0.7277089061397842</v>
       </c>
     </row>
     <row r="100">
@@ -2530,13 +2530,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4529580231785982</v>
+        <v>15162.24768360046</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4997007933708793</v>
+        <v>0.9340324622176738</v>
       </c>
     </row>
     <row r="101">
@@ -2551,13 +2551,13 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D101" t="n">
-        <v>1659.374677006842</v>
+        <v>1.095626451670507e+16</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6912348697696431</v>
+        <v>0.6672048003118991</v>
       </c>
     </row>
     <row r="102">
@@ -2572,13 +2572,13 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>459.6697058244901</v>
+        <v>4838647967114702</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8342778820986438</v>
+        <v>0.6917744209374751</v>
       </c>
     </row>
     <row r="103">
@@ -2593,13 +2593,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D103" t="n">
-        <v>1745.904275626796</v>
+        <v>1.118014185875226e+16</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6633168051328096</v>
+        <v>0.6687084028665561</v>
       </c>
     </row>
     <row r="104">
@@ -2614,13 +2614,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D104" t="n">
-        <v>1216.328594170339</v>
+        <v>1.075434601372032e+16</v>
       </c>
       <c r="E104" t="n">
-        <v>0.8087337313287202</v>
+        <v>0.666959869501671</v>
       </c>
     </row>
     <row r="105">
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D105" t="n">
-        <v>344.3441213024104</v>
+        <v>4477268347663224</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6390740423404903</v>
+        <v>0.6909249725956853</v>
       </c>
     </row>
     <row r="106">
@@ -2656,13 +2656,13 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D106" t="n">
-        <v>27.39873362199448</v>
+        <v>601540748935937</v>
       </c>
       <c r="E106" t="n">
-        <v>0.7703961028699146</v>
+        <v>0.6761646994196665</v>
       </c>
     </row>
     <row r="107">
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D107" t="n">
-        <v>27.34332582447077</v>
+        <v>3540491074939787</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7713741943593029</v>
+        <v>0.7473137354562043</v>
       </c>
     </row>
     <row r="108">
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D108" t="n">
-        <v>636.6817123947901</v>
+        <v>7840121031539392</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8096697082497389</v>
+        <v>0.6732907943713128</v>
       </c>
     </row>
     <row r="109">
@@ -2719,1525 +2719,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4892130459648857</v>
+        <v>524634692.6199462</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5346759815708811</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>311498.3462076603</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0.7538990805721508</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>69545.41407849868</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0.777570007628926</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>3</v>
-      </c>
-      <c r="D112" t="n">
-        <v>329066.6643658629</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.7390998027651212</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>249754.2808543007</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.779113323616304</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>56639.66792714193</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0.6958418970091956</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>3</v>
-      </c>
-      <c r="D115" t="n">
-        <v>5306.781901601269</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0.7477947801692167</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>3</v>
-      </c>
-      <c r="D116" t="n">
-        <v>5259.747216140621</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0.7459812013736801</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>130417.0368568317</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.7785400723762004</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>3</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.4536172489714327</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0.5017046459856822</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>24309194.93587051</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0.6570309035715263</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>5294489.853434301</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0.6656972838518802</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>25654098.03705322</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0.6562502690253812</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>4</v>
-      </c>
-      <c r="D122" t="n">
-        <v>21297232.53564563</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0.6676774031875815</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>4</v>
-      </c>
-      <c r="D123" t="n">
-        <v>5429188.496961324</v>
-      </c>
-      <c r="E123" t="n">
-        <v>0.6953866900547711</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>4</v>
-      </c>
-      <c r="D124" t="n">
-        <v>472064.943413302</v>
-      </c>
-      <c r="E124" t="n">
-        <v>0.6173666799819832</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>472076.139130961</v>
-      </c>
-      <c r="E125" t="n">
-        <v>0.6149005063828068</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>4</v>
-      </c>
-      <c r="D126" t="n">
-        <v>10987005.38319752</v>
-      </c>
-      <c r="E126" t="n">
-        <v>0.6476374517559969</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>4</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0.6092259168792182</v>
-      </c>
-      <c r="E127" t="n">
-        <v>0.5561203991997223</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>5</v>
-      </c>
-      <c r="D128" t="n">
-        <v>2323466546.184915</v>
-      </c>
-      <c r="E128" t="n">
-        <v>0.686815270751153</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>5</v>
-      </c>
-      <c r="D129" t="n">
-        <v>516619673.9732077</v>
-      </c>
-      <c r="E129" t="n">
-        <v>0.6808359947755922</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>5</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2435177466.40179</v>
-      </c>
-      <c r="E130" t="n">
-        <v>0.6872082589532797</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>5</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2088102151.255594</v>
-      </c>
-      <c r="E131" t="n">
-        <v>0.6751954081636535</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>5</v>
-      </c>
-      <c r="D132" t="n">
-        <v>494000687.3775462</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0.6929845725077682</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>5</v>
-      </c>
-      <c r="D133" t="n">
-        <v>50445206.3365846</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0.6806723625248465</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>5</v>
-      </c>
-      <c r="D134" t="n">
-        <v>48826527.20841346</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0.665954274587768</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1096760904.758137</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0.666294350584119</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>169.8535982738597</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0.769421417313995</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>6</v>
-      </c>
-      <c r="D137" t="n">
-        <v>87071447293.09563</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0.6031635292482018</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>22284693392.12411</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0.5909039488826635</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>6</v>
-      </c>
-      <c r="D139" t="n">
-        <v>89636312054.1642</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0.5978276293020768</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>81539525527.40364</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.5992969832522381</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>19380897070.16928</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.5548943031689149</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2213554329.481828</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.5889279128015303</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2150168799.839777</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.5798678813831126</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>6</v>
-      </c>
-      <c r="D144" t="n">
-        <v>46705066791.28259</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.5982301757372428</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>6</v>
-      </c>
-      <c r="D145" t="n">
-        <v>11655.18323251649</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.6984235558910182</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5859168006716.986</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.717135197020399</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1642773684928.254</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.6920197067333483</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>6109749213767.693</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.7179829250177746</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>5538251575666.744</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.7100493031527465</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1459707584717.188</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.725091927090412</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>7</v>
-      </c>
-      <c r="D151" t="n">
-        <v>167743704463.2195</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.7142798981809355</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>7</v>
-      </c>
-      <c r="D152" t="n">
-        <v>165800556587.3246</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.7027380250619711</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>7</v>
-      </c>
-      <c r="D153" t="n">
-        <v>3375419014332.507</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.7241151407695614</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>554677.6529046467</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.6476006445648311</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>8</v>
-      </c>
-      <c r="D155" t="n">
-        <v>192559619721583</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.570113661113111</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>8</v>
-      </c>
-      <c r="D156" t="n">
-        <v>65146545447962.23</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.6244981331979956</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>8</v>
-      </c>
-      <c r="D157" t="n">
-        <v>197566120672839.5</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.5671623367897121</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>8</v>
-      </c>
-      <c r="D158" t="n">
-        <v>192963048532371.9</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.5815280893200921</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>8</v>
-      </c>
-      <c r="D159" t="n">
-        <v>55393171068286.08</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.6169915927604727</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>8</v>
-      </c>
-      <c r="D160" t="n">
-        <v>6669024506350.522</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.596357553675457</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>8</v>
-      </c>
-      <c r="D161" t="n">
-        <v>6531115553592.828</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.5895656723466601</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>8</v>
-      </c>
-      <c r="D162" t="n">
-        <v>121541163605783.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.5928532082392282</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>8</v>
-      </c>
-      <c r="D163" t="n">
-        <v>19752789.38858631</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.6123333915516884</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>9</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7839191797069726</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.6402520707317074</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>9</v>
-      </c>
-      <c r="D165" t="n">
-        <v>2896428672048126</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.6628548886472609</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>9</v>
-      </c>
-      <c r="D166" t="n">
-        <v>8086291688268363</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.6398951348399364</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>9</v>
-      </c>
-      <c r="D167" t="n">
-        <v>7836064011797196</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.6386850420620662</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>9</v>
-      </c>
-      <c r="D168" t="n">
-        <v>2447562156735769</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.6538321028901521</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>9</v>
-      </c>
-      <c r="D169" t="n">
-        <v>296711898965740.4</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.6544113626501182</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>9</v>
-      </c>
-      <c r="D170" t="n">
-        <v>290611081359124.2</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.654315149381002</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>9</v>
-      </c>
-      <c r="D171" t="n">
-        <v>5199644434987306</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.6480330274150841</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>9</v>
-      </c>
-      <c r="D172" t="n">
-        <v>1159144215.876194</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.6436235425179806</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>AREPD</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>10</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2.779420254877175e+17</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.6746216552960325</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>AV-MCPS</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>10</v>
-      </c>
-      <c r="D174" t="n">
-        <v>1.070917321814662e+17</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.6971740615401738</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Block Bootstrapping</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>10</v>
-      </c>
-      <c r="D175" t="n">
-        <v>2.851152930973701e+17</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.6759263886627043</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>DeepAR</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>10</v>
-      </c>
-      <c r="D176" t="n">
-        <v>2.763062005612939e+17</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.6716353861751775</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>EnCQR-LSTM</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>10</v>
-      </c>
-      <c r="D177" t="n">
-        <v>9.482966762130186e+16</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.6900450162016493</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>LSPM</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>10</v>
-      </c>
-      <c r="D178" t="n">
-        <v>1.071669931038903e+16</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0.6717146691003062</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>LSPMW</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>10</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1.053392435308418e+16</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.671047366665477</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>MCPS</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>10</v>
-      </c>
-      <c r="D180" t="n">
-        <v>1.885344301926549e+17</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.6823945531627458</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Sieve Bootstrap</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>SIN_DIFF</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>10</v>
-      </c>
-      <c r="D181" t="n">
-        <v>37926363965.82964</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.6659046703258242</v>
+        <v>0.8574739680353134</v>
       </c>
     </row>
   </sheetData>
